--- a/folium_example/map list.xlsx
+++ b/folium_example/map list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="131">
   <si>
     <t>Site</t>
   </si>
@@ -120,9 +120,6 @@
     <t>AS EU</t>
   </si>
   <si>
-    <t>Stress Analysis / Design / ME</t>
-  </si>
-  <si>
     <t>Veera Akula / Kumaran Ganesan</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>GKN Aerospace – Cowes</t>
   </si>
   <si>
-    <t>Stress Analysis / Design / Concessions / ME</t>
-  </si>
-  <si>
     <t>Andrew White / Paul Kennedy</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>   </t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
@@ -333,12 +324,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Programs Running</t>
-  </si>
-  <si>
-    <t>Focus Areas</t>
-  </si>
-  <si>
     <t>ICC, IMC, TEC, TRF, RM12</t>
   </si>
   <si>
@@ -346,6 +331,93 @@
   </si>
   <si>
     <t>Procurement</t>
+  </si>
+  <si>
+    <t>Dassault, Bombardier, Airbus 350-1000</t>
+  </si>
+  <si>
+    <t>Analysis, Design &amp; ME</t>
+  </si>
+  <si>
+    <t>Procurement Malaysia</t>
+  </si>
+  <si>
+    <t>Czaia Dietmar</t>
+  </si>
+  <si>
+    <t>Invoiced Hours YTD</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CimTools</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>TAML</t>
+  </si>
+  <si>
+    <t>Aequs</t>
+  </si>
+  <si>
+    <t>LMW</t>
+  </si>
+  <si>
+    <t>Arne</t>
+  </si>
+  <si>
+    <t>Sansera</t>
+  </si>
+  <si>
+    <t>Upeca</t>
+  </si>
+  <si>
+    <t>Sanior</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>ISRO</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t>Dassault</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>HTF</t>
+  </si>
+  <si>
+    <t>Active/Non Active</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Non Active</t>
   </si>
 </sst>
 </file>
@@ -834,7 +906,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -846,6 +918,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1186,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1201,12 +1276,13 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,16 +1290,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1232,22 +1308,28 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30">
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1264,32 +1346,39 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="5">
+        <v>94</v>
+      </c>
+      <c r="I2" s="7">
+        <f ca="1">RAND()*100000</f>
+        <v>30198.823217446956</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5">
         <v>7.9950853723467494</v>
       </c>
-      <c r="K2" s="6">
-        <f>J2*0.9</f>
+      <c r="M2" s="6">
+        <f>L2*0.9</f>
         <v>7.1955768351120746</v>
       </c>
-      <c r="L2" s="6">
-        <f t="shared" ref="L2:M2" si="0">K2*0.9</f>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:O2" si="0">M2*0.9</f>
         <v>6.4760191516008669</v>
       </c>
-      <c r="M2" s="6">
+      <c r="O2" s="6">
         <f t="shared" si="0"/>
         <v>5.8284172364407807</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1312,24 +1401,31 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5">
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I45" ca="1" si="1">RAND()*100000</f>
+        <v>12647.733963335671</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5">
         <v>7.171505565905167</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:M3" si="1">J3*0.9</f>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:O3" si="2">L3*0.9</f>
         <v>6.45435500931465</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" si="1"/>
+      <c r="N3" s="6">
+        <f t="shared" si="2"/>
         <v>5.8089195083831848</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" si="1"/>
+      <c r="O3" s="6">
+        <f t="shared" si="2"/>
         <v>5.2280275575448663</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1352,24 +1448,31 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="5">
+      <c r="I4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>27243.785410334098</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5">
         <v>6.394766967685336</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:M4" si="2">J4*0.9</f>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:O4" si="3">L4*0.9</f>
         <v>5.7552902709168023</v>
       </c>
-      <c r="L4" s="6">
-        <f t="shared" si="2"/>
+      <c r="N4" s="6">
+        <f t="shared" si="3"/>
         <v>5.1797612438251219</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="2"/>
+      <c r="O4" s="6">
+        <f t="shared" si="3"/>
         <v>4.6617851194426096</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1385,27 +1488,34 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5">
+      <c r="I5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6760.1628577526717</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5">
         <v>7.2314718045923154</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:M5" si="3">J5*0.9</f>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:O5" si="4">L5*0.9</f>
         <v>6.5083246241330839</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" si="3"/>
+      <c r="N5" s="6">
+        <f t="shared" si="4"/>
         <v>5.8574921617197759</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="3"/>
+      <c r="O5" s="6">
+        <f t="shared" si="4"/>
         <v>5.2717429455477989</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1428,24 +1538,31 @@
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5">
+      <c r="I6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24469.011727527002</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5">
         <v>7.243888749186989</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" ref="K6:M6" si="4">J6*0.9</f>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6:O6" si="5">L6*0.9</f>
         <v>6.5194998742682904</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="4"/>
+      <c r="N6" s="6">
+        <f t="shared" si="5"/>
         <v>5.8675498868414611</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="4"/>
+      <c r="O6" s="6">
+        <f t="shared" si="5"/>
         <v>5.280794898157315</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1461,27 +1578,34 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5">
+      <c r="I7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>66507.15885693481</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5">
         <v>7.2993263797170878</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ref="K7:M7" si="5">J7*0.9</f>
+      <c r="M7" s="6">
+        <f t="shared" ref="M7:O7" si="6">L7*0.9</f>
         <v>6.5693937417453787</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" si="5"/>
+      <c r="N7" s="6">
+        <f t="shared" si="6"/>
         <v>5.9124543675708408</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="5"/>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
         <v>5.3212089308137571</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,24 +1626,31 @@
       <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="5">
+      <c r="I8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>48963.982800228136</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5">
         <v>7.5812364100991845</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ref="K8:M8" si="6">J8*0.9</f>
+      <c r="M8" s="6">
+        <f t="shared" ref="M8:O8" si="7">L8*0.9</f>
         <v>6.8231127690892661</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="6"/>
+      <c r="N8" s="6">
+        <f t="shared" si="7"/>
         <v>6.1408014921803398</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="6"/>
+      <c r="O8" s="6">
+        <f t="shared" si="7"/>
         <v>5.5267213429623059</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1533,7 +1664,7 @@
         <v>-2.2425999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
@@ -1542,24 +1673,31 @@
       <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="5">
+      <c r="I9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>86852.049184828502</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5">
         <v>6.5272012262284438</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" ref="K9:M9" si="7">J9*0.9</f>
+      <c r="M9" s="6">
+        <f t="shared" ref="M9:O9" si="8">L9*0.9</f>
         <v>5.8744811036055999</v>
       </c>
-      <c r="L9" s="6">
-        <f t="shared" si="7"/>
+      <c r="N9" s="6">
+        <f t="shared" si="8"/>
         <v>5.2870329932450399</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="7"/>
+      <c r="O9" s="6">
+        <f t="shared" si="8"/>
         <v>4.758329693920536</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1575,27 +1713,34 @@
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5">
+      <c r="I10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>83718.783327635872</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="5">
         <v>8.1935767077045671</v>
       </c>
-      <c r="K10" s="6">
-        <f t="shared" ref="K10:M10" si="8">J10*0.9</f>
+      <c r="M10" s="6">
+        <f t="shared" ref="M10:O10" si="9">L10*0.9</f>
         <v>7.374219036934111</v>
       </c>
-      <c r="L10" s="6">
-        <f t="shared" si="8"/>
+      <c r="N10" s="6">
+        <f t="shared" si="9"/>
         <v>6.6367971332406999</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="8"/>
+      <c r="O10" s="6">
+        <f t="shared" si="9"/>
         <v>5.9731174199166297</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1754,7 @@
         <v>-85.386399999999995</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
@@ -1618,24 +1763,31 @@
       <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="5">
+      <c r="I11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>21253.938963650398</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="5">
         <v>9.5442772698185969</v>
       </c>
-      <c r="K11" s="6">
-        <f t="shared" ref="K11:M11" si="9">J11*0.9</f>
+      <c r="M11" s="6">
+        <f t="shared" ref="M11:O11" si="10">L11*0.9</f>
         <v>8.5898495428367383</v>
       </c>
-      <c r="L11" s="6">
-        <f t="shared" si="9"/>
+      <c r="N11" s="6">
+        <f t="shared" si="10"/>
         <v>7.7308645885530645</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="9"/>
+      <c r="O11" s="6">
+        <f t="shared" si="10"/>
         <v>6.9577781296977586</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1651,27 +1803,34 @@
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="5">
+      <c r="I12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2818.694209888939</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="5">
         <v>6.6986841937853825</v>
       </c>
-      <c r="K12" s="6">
-        <f t="shared" ref="K12:M12" si="10">J12*0.9</f>
+      <c r="M12" s="6">
+        <f t="shared" ref="M12:O12" si="11">L12*0.9</f>
         <v>6.0288157744068442</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" si="10"/>
+      <c r="N12" s="6">
+        <f t="shared" si="11"/>
         <v>5.4259341969661596</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" si="10"/>
+      <c r="O12" s="6">
+        <f t="shared" si="11"/>
         <v>4.8833407772695434</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1687,27 +1846,34 @@
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="5">
+      <c r="I13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>33430.923111297627</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5">
         <v>7.8611495193169887</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" ref="K13:M13" si="11">J13*0.9</f>
+      <c r="M13" s="6">
+        <f t="shared" ref="M13:O13" si="12">L13*0.9</f>
         <v>7.0750345673852904</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="11"/>
+      <c r="N13" s="6">
+        <f t="shared" si="12"/>
         <v>6.3675311106467616</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="11"/>
+      <c r="O13" s="6">
+        <f t="shared" si="12"/>
         <v>5.7307779995820853</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15" ht="45">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1721,35 +1887,44 @@
         <v>2.5764999999999998</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>88204.534950265326</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="5">
+        <v>9.1566091429191712</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" ref="M14:O14" si="13">L14*0.9</f>
+        <v>8.2409482286272535</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="13"/>
+        <v>7.4168534057645283</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="13"/>
+        <v>6.6751680651880756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45">
+      <c r="A15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="5">
-        <v>9.1566091429191712</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" ref="K14:M14" si="12">J14*0.9</f>
-        <v>8.2409482286272535</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="12"/>
-        <v>7.4168534057645283</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="12"/>
-        <v>6.6751680651880756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
@@ -1761,37 +1936,44 @@
         <v>1.3005</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4008.9020697949618</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="5">
+        <v>9.4833532732997661</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" ref="M15:O15" si="14">L15*0.9</f>
+        <v>8.5350179459697895</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="14"/>
+        <v>7.6815161513728105</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="14"/>
+        <v>6.9133645362355294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="5">
-        <v>9.4833532732997661</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" ref="K15:M15" si="13">J15*0.9</f>
-        <v>8.5350179459697895</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="13"/>
-        <v>7.6815161513728105</v>
-      </c>
-      <c r="M15" s="6">
-        <f t="shared" si="13"/>
-        <v>6.9133645362355294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1805,29 +1987,36 @@
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="5">
+      <c r="I16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>54881.878150403994</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="5">
         <v>8.4227792100573904</v>
       </c>
-      <c r="K16" s="6">
-        <f t="shared" ref="K16:M16" si="14">J16*0.9</f>
+      <c r="M16" s="6">
+        <f t="shared" ref="M16:O16" si="15">L16*0.9</f>
         <v>7.5805012890516519</v>
       </c>
-      <c r="L16" s="6">
-        <f t="shared" si="14"/>
+      <c r="N16" s="6">
+        <f t="shared" si="15"/>
         <v>6.8224511601464872</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" si="14"/>
+      <c r="O16" s="6">
+        <f t="shared" si="15"/>
         <v>6.1402060441318387</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -1839,35 +2028,42 @@
         <v>2.5878999999999999</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="5">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>46215.727364728744</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5">
         <v>7.6989990729626214</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" ref="K17:M17" si="15">J17*0.9</f>
+      <c r="M17" s="6">
+        <f t="shared" ref="M17:O17" si="16">L17*0.9</f>
         <v>6.9290991656663596</v>
       </c>
-      <c r="L17" s="6">
-        <f t="shared" si="15"/>
+      <c r="N17" s="6">
+        <f t="shared" si="16"/>
         <v>6.2361892490997235</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="15"/>
+      <c r="O17" s="6">
+        <f t="shared" si="16"/>
         <v>5.6125703241897513</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
@@ -1881,29 +2077,36 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="5">
+      <c r="I18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>63247.239713407267</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5">
         <v>8.2094054419384079</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:M18" si="16">J18*0.9</f>
+      <c r="M18" s="6">
+        <f t="shared" ref="M18:O18" si="17">L18*0.9</f>
         <v>7.3884648977445675</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="16"/>
+      <c r="N18" s="6">
+        <f t="shared" si="17"/>
         <v>6.6496184079701113</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" si="16"/>
+      <c r="O18" s="6">
+        <f t="shared" si="17"/>
         <v>5.9846565671731007</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -1914,35 +2117,46 @@
       <c r="D19" s="3">
         <v>11.582000000000001</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="5">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24644.603932407881</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5">
         <v>9.4764272698514951</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" ref="K19:M19" si="17">J19*0.9</f>
+      <c r="M19" s="6">
+        <f t="shared" ref="M19:O19" si="18">L19*0.9</f>
         <v>8.5287845428663456</v>
       </c>
-      <c r="L19" s="6">
-        <f t="shared" si="17"/>
+      <c r="N19" s="6">
+        <f t="shared" si="18"/>
         <v>7.675906088579711</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="17"/>
+      <c r="O19" s="6">
+        <f t="shared" si="18"/>
         <v>6.9083154797217396</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
         <v>31.968599999999999</v>
@@ -1956,31 +2170,38 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="5">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>78652.950415605024</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5">
         <v>7.7105155914176091</v>
       </c>
-      <c r="K20" s="6">
-        <f t="shared" ref="K20:M20" si="18">J20*0.9</f>
+      <c r="M20" s="6">
+        <f t="shared" ref="M20:O20" si="19">L20*0.9</f>
         <v>6.9394640322758487</v>
       </c>
-      <c r="L20" s="6">
-        <f t="shared" si="18"/>
+      <c r="N20" s="6">
+        <f t="shared" si="19"/>
         <v>6.2455176290482637</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" si="18"/>
+      <c r="O20" s="6">
+        <f t="shared" si="19"/>
         <v>5.6209658661434379</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>40.741895</v>
@@ -1989,38 +2210,45 @@
         <v>-73.989307999999994</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="5">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>32199.142259670843</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5">
         <v>9.8709712217253802</v>
       </c>
-      <c r="K21" s="6">
-        <f t="shared" ref="K21:M21" si="19">J21*0.9</f>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21:O21" si="20">L21*0.9</f>
         <v>8.8838740995528429</v>
       </c>
-      <c r="L21" s="6">
-        <f t="shared" si="19"/>
+      <c r="N21" s="6">
+        <f t="shared" si="20"/>
         <v>7.9954866895975591</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" si="19"/>
+      <c r="O21" s="6">
+        <f t="shared" si="20"/>
         <v>7.1959380206378034</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>33.7455</v>
@@ -2029,38 +2257,45 @@
         <v>-117.8677</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="5">
+        <v>48</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>54061.98065770109</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5">
         <v>6.53890880561418</v>
       </c>
-      <c r="K22" s="6">
-        <f t="shared" ref="K22:M22" si="20">J22*0.9</f>
+      <c r="M22" s="6">
+        <f t="shared" ref="M22:O22" si="21">L22*0.9</f>
         <v>5.8850179250527619</v>
       </c>
-      <c r="L22" s="6">
-        <f t="shared" si="20"/>
+      <c r="N22" s="6">
+        <f t="shared" si="21"/>
         <v>5.2965161325474854</v>
       </c>
-      <c r="M22" s="6">
-        <f t="shared" si="20"/>
+      <c r="O22" s="6">
+        <f t="shared" si="21"/>
         <v>4.7668645192927368</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3">
         <v>38.627000000000002</v>
@@ -2074,31 +2309,38 @@
         <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="5">
+        <v>50</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18131.483845651419</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5">
         <v>6.4887302314744444</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" ref="K23:M23" si="21">J23*0.9</f>
+      <c r="M23" s="6">
+        <f t="shared" ref="M23:O23" si="22">L23*0.9</f>
         <v>5.8398572083270004</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="21"/>
+      <c r="N23" s="6">
+        <f t="shared" si="22"/>
         <v>5.2558714874943009</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="21"/>
+      <c r="O23" s="6">
+        <f t="shared" si="22"/>
         <v>4.7302843387448705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>40.712800000000001</v>
@@ -2107,38 +2349,45 @@
         <v>-74.005899999999997</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="5">
+        <v>46</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5582.214349215953</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5">
         <v>9.6450079799604982</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" ref="K24:M24" si="22">J24*0.9</f>
+      <c r="M24" s="6">
+        <f t="shared" ref="M24:O24" si="23">L24*0.9</f>
         <v>8.6805071819644493</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="22"/>
+      <c r="N24" s="6">
+        <f t="shared" si="23"/>
         <v>7.8124564637680045</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="22"/>
+      <c r="O24" s="6">
+        <f t="shared" si="23"/>
         <v>7.0312108173912042</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4">
         <v>33.836100000000002</v>
@@ -2149,32 +2398,39 @@
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="5">
+      <c r="I25" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>91579.428990842731</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5">
         <v>9.7349586965220265</v>
       </c>
-      <c r="K25" s="6">
-        <f t="shared" ref="K25:M25" si="23">J25*0.9</f>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:O25" si="24">L25*0.9</f>
         <v>8.761462826869824</v>
       </c>
-      <c r="L25" s="6">
-        <f t="shared" si="23"/>
+      <c r="N25" s="6">
+        <f t="shared" si="24"/>
         <v>7.8853165441828414</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" si="23"/>
+      <c r="O25" s="6">
+        <f t="shared" si="24"/>
         <v>7.0967848897645576</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>32.318199999999997</v>
@@ -2183,38 +2439,45 @@
         <v>-86.902299999999997</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="5">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>23044.895061653126</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="5">
         <v>6.6419564388702481</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" ref="K26:M26" si="24">J26*0.9</f>
+      <c r="M26" s="6">
+        <f t="shared" ref="M26:O26" si="25">L26*0.9</f>
         <v>5.9777607949832232</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="24"/>
+      <c r="N26" s="6">
+        <f t="shared" si="25"/>
         <v>5.379984715484901</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="24"/>
+      <c r="O26" s="6">
+        <f t="shared" si="25"/>
         <v>4.841986243936411</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4">
         <v>34.180799999999998</v>
@@ -2225,32 +2488,39 @@
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="5">
+      <c r="I27" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>99019.720376368976</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="5">
         <v>7.1055121097190348</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" ref="K27:M27" si="25">J27*0.9</f>
+      <c r="M27" s="6">
+        <f t="shared" ref="M27:O27" si="26">L27*0.9</f>
         <v>6.3949608987471311</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="25"/>
+      <c r="N27" s="6">
+        <f t="shared" si="26"/>
         <v>5.7554648088724178</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="25"/>
+      <c r="O27" s="6">
+        <f t="shared" si="26"/>
         <v>5.1799183279851766</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4">
         <v>32.624499999999998</v>
@@ -2261,32 +2531,39 @@
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="5">
+      <c r="I28" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>26498.961645113628</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5">
         <v>6.5221552807357446</v>
       </c>
-      <c r="K28" s="6">
-        <f t="shared" ref="K28:M28" si="26">J28*0.9</f>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28:O28" si="27">L28*0.9</f>
         <v>5.8699397526621704</v>
       </c>
-      <c r="L28" s="6">
-        <f t="shared" si="26"/>
+      <c r="N28" s="6">
+        <f t="shared" si="27"/>
         <v>5.2829457773959536</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="26"/>
+      <c r="O28" s="6">
+        <f t="shared" si="27"/>
         <v>4.7546511996563581</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4">
         <v>47.203200000000002</v>
@@ -2297,32 +2574,39 @@
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="5">
+      <c r="I29" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6016.0464029393343</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="5">
         <v>9.6221285933694851</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" ref="K29:M29" si="27">J29*0.9</f>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29:O29" si="28">L29*0.9</f>
         <v>8.6599157340325377</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" si="27"/>
+      <c r="N29" s="6">
+        <f t="shared" si="28"/>
         <v>7.7939241606292837</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="27"/>
+      <c r="O29" s="6">
+        <f t="shared" si="28"/>
         <v>7.0145317445663551</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4">
         <v>34.2164</v>
@@ -2336,31 +2620,38 @@
         <v>10</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="5">
+        <v>60</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>76240.939283663873</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="5">
         <v>8.9065822484128336</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" ref="K30:M30" si="28">J30*0.9</f>
+      <c r="M30" s="6">
+        <f t="shared" ref="M30:O30" si="29">L30*0.9</f>
         <v>8.0159240235715501</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="28"/>
+      <c r="N30" s="6">
+        <f t="shared" si="29"/>
         <v>7.2143316212143951</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="28"/>
+      <c r="O30" s="6">
+        <f t="shared" si="29"/>
         <v>6.4928984590929559</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4">
         <v>33.836100000000002</v>
@@ -2369,36 +2660,43 @@
         <v>-81.163700000000006</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="5">
+      <c r="I31" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>87869.481781502516</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5">
         <v>8.1720617634450097</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" ref="K31:M31" si="29">J31*0.9</f>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31:O31" si="30">L31*0.9</f>
         <v>7.3548555871005092</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="29"/>
+      <c r="N31" s="6">
+        <f t="shared" si="30"/>
         <v>6.6193700283904588</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="29"/>
+      <c r="O31" s="6">
+        <f t="shared" si="30"/>
         <v>5.9574330255514134</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
         <v>38.627000000000002</v>
@@ -2409,32 +2707,39 @@
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="5">
+      <c r="I32" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>84711.139827023275</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="5">
         <v>9.387438762108216</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" ref="K32:M32" si="30">J32*0.9</f>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32:O32" si="31">L32*0.9</f>
         <v>8.4486948858973943</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="30"/>
+      <c r="N32" s="6">
+        <f t="shared" si="31"/>
         <v>7.6038253973076548</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="30"/>
+      <c r="O32" s="6">
+        <f t="shared" si="31"/>
         <v>6.8434428575768891</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3">
         <v>50.762799999999999</v>
@@ -2445,32 +2750,39 @@
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="5">
+      <c r="I33" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>91867.09940552387</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="5">
         <v>7.5101322844134071</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" ref="K33:M33" si="31">J33*0.9</f>
+      <c r="M33" s="6">
+        <f t="shared" ref="M33:O33" si="32">L33*0.9</f>
         <v>6.7591190559720662</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="31"/>
+      <c r="N33" s="6">
+        <f t="shared" si="32"/>
         <v>6.0832071503748599</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="31"/>
+      <c r="O33" s="6">
+        <f t="shared" si="32"/>
         <v>5.4748864353373738</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4">
         <v>51.454500000000003</v>
@@ -2481,32 +2793,39 @@
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="5">
+      <c r="I34" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>72291.344417525499</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5">
         <v>9.5939000770810203</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34:M34" si="32">J34*0.9</f>
+      <c r="M34" s="6">
+        <f t="shared" ref="M34:O34" si="33">L34*0.9</f>
         <v>8.6345100693729187</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="32"/>
+      <c r="N34" s="6">
+        <f t="shared" si="33"/>
         <v>7.7710590624356266</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="32"/>
+      <c r="O34" s="6">
+        <f t="shared" si="33"/>
         <v>6.993953156192064</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4">
         <v>12.9716</v>
@@ -2515,38 +2834,45 @@
         <v>77.5946</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>89381.267815962347</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5">
+        <v>8.497308680699561</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" ref="M35:O35" si="34">L35*0.9</f>
+        <v>7.6475778126296055</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="34"/>
+        <v>6.882820031366645</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="34"/>
+        <v>6.1945380282299807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="5">
-        <v>8.497308680699561</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" ref="K35:M35" si="33">J35*0.9</f>
-        <v>7.6475778126296055</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="33"/>
-        <v>6.882820031366645</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="33"/>
-        <v>6.1945380282299807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="4">
         <v>50.819800000000001</v>
@@ -2555,38 +2881,45 @@
         <v>-1.0880000000000001</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6860.3496323496493</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="5">
+        <v>9.4797594515086985</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36:O36" si="35">L36*0.9</f>
+        <v>8.5317835063578293</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="35"/>
+        <v>7.6786051557220469</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="35"/>
+        <v>6.9107446401498427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="5">
-        <v>9.4797594515086985</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" ref="K36:M36" si="34">J36*0.9</f>
-        <v>8.5317835063578293</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="34"/>
-        <v>7.6786051557220469</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" si="34"/>
-        <v>6.9107446401498427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4">
         <v>51.878700000000002</v>
@@ -2597,32 +2930,39 @@
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="5">
+      <c r="I37" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>67017.854643678817</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="5">
         <v>8.064611867540922</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" ref="K37:M37" si="35">J37*0.9</f>
+      <c r="M37" s="6">
+        <f t="shared" ref="M37:O37" si="36">L37*0.9</f>
         <v>7.2581506807868301</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="35"/>
+      <c r="N37" s="6">
+        <f t="shared" si="36"/>
         <v>6.5323356127081471</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="35"/>
+      <c r="O37" s="6">
+        <f t="shared" si="36"/>
         <v>5.8791020514373322</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4">
         <v>52.412100000000002</v>
@@ -2631,38 +2971,45 @@
         <v>-1.9192</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="5">
+        <v>75</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>37960.290025501301</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="5">
         <v>9.5310956085229765</v>
       </c>
-      <c r="K38" s="6">
-        <f t="shared" ref="K38:M38" si="36">J38*0.9</f>
+      <c r="M38" s="6">
+        <f t="shared" ref="M38:O38" si="37">L38*0.9</f>
         <v>8.5779860476706791</v>
       </c>
-      <c r="L38" s="6">
-        <f t="shared" si="36"/>
+      <c r="N38" s="6">
+        <f t="shared" si="37"/>
         <v>7.7201874429036117</v>
       </c>
-      <c r="M38" s="6">
-        <f t="shared" si="36"/>
+      <c r="O38" s="6">
+        <f t="shared" si="37"/>
         <v>6.9481686986132507</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>32.318199999999997</v>
@@ -2676,29 +3023,36 @@
         <v>10</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="5">
+      <c r="I39" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>92060.251583221398</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="5">
         <v>8.3296305286825447</v>
       </c>
-      <c r="K39" s="6">
-        <f t="shared" ref="K39:M39" si="37">J39*0.9</f>
+      <c r="M39" s="6">
+        <f t="shared" ref="M39:O39" si="38">L39*0.9</f>
         <v>7.4966674758142906</v>
       </c>
-      <c r="L39" s="6">
-        <f t="shared" si="37"/>
+      <c r="N39" s="6">
+        <f t="shared" si="38"/>
         <v>6.7470007282328615</v>
       </c>
-      <c r="M39" s="6">
-        <f t="shared" si="37"/>
+      <c r="O39" s="6">
+        <f t="shared" si="38"/>
         <v>6.0723006554095758</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4">
         <v>52.412100000000002</v>
@@ -2709,32 +3063,39 @@
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="5">
+      <c r="I40" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2676.3971773432258</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="5">
         <v>8.3938705892624128</v>
       </c>
-      <c r="K40" s="6">
-        <f t="shared" ref="K40:M40" si="38">J40*0.9</f>
+      <c r="M40" s="6">
+        <f t="shared" ref="M40:O40" si="39">L40*0.9</f>
         <v>7.5544835303361717</v>
       </c>
-      <c r="L40" s="6">
-        <f t="shared" si="38"/>
+      <c r="N40" s="6">
+        <f t="shared" si="39"/>
         <v>6.7990351773025548</v>
       </c>
-      <c r="M40" s="6">
-        <f t="shared" si="38"/>
+      <c r="O40" s="6">
+        <f t="shared" si="39"/>
         <v>6.1191316595722993</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="4">
         <v>14.0654</v>
@@ -2745,32 +3106,39 @@
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="5">
+      <c r="I41" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>63901.961468792477</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="5">
         <v>6.3725784077892289</v>
       </c>
-      <c r="K41" s="6">
-        <f t="shared" ref="K41:M41" si="39">J41*0.9</f>
+      <c r="M41" s="6">
+        <f t="shared" ref="M41:O41" si="40">L41*0.9</f>
         <v>5.735320567010306</v>
       </c>
-      <c r="L41" s="6">
-        <f t="shared" si="39"/>
+      <c r="N41" s="6">
+        <f t="shared" si="40"/>
         <v>5.1617885103092753</v>
       </c>
-      <c r="M41" s="6">
-        <f t="shared" si="39"/>
+      <c r="O41" s="6">
+        <f t="shared" si="40"/>
         <v>4.6456096592783478</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4">
         <v>51.842500000000001</v>
@@ -2779,38 +3147,45 @@
         <v>4.6942000000000004</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="5">
+        <v>82</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>77474.235880427063</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="5">
         <v>8.2571740530053273</v>
       </c>
-      <c r="K42" s="6">
-        <f t="shared" ref="K42:M42" si="40">J42*0.9</f>
+      <c r="M42" s="6">
+        <f t="shared" ref="M42:O42" si="41">L42*0.9</f>
         <v>7.4314566477047945</v>
       </c>
-      <c r="L42" s="6">
-        <f t="shared" si="40"/>
+      <c r="N42" s="6">
+        <f t="shared" si="41"/>
         <v>6.6883109829343148</v>
       </c>
-      <c r="M42" s="6">
-        <f t="shared" si="40"/>
+      <c r="O42" s="6">
+        <f t="shared" si="41"/>
         <v>6.0194798846408837</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4">
         <v>52.370199999999997</v>
@@ -2819,38 +3194,45 @@
         <v>4.8952</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="5">
+        <v>85</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>30992.168794532481</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="5">
         <v>9.6635114272786691</v>
       </c>
-      <c r="K43" s="6">
-        <f t="shared" ref="K43:M43" si="41">J43*0.9</f>
+      <c r="M43" s="6">
+        <f t="shared" ref="M43:O43" si="42">L43*0.9</f>
         <v>8.6971602845508027</v>
       </c>
-      <c r="L43" s="6">
-        <f t="shared" si="41"/>
+      <c r="N43" s="6">
+        <f t="shared" si="42"/>
         <v>7.8274442560957223</v>
       </c>
-      <c r="M43" s="6">
-        <f t="shared" si="41"/>
+      <c r="O43" s="6">
+        <f t="shared" si="42"/>
         <v>7.0446998304861506</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4">
         <v>51.479300000000002</v>
@@ -2861,32 +3243,39 @@
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="5">
+      <c r="I44" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>84410.186922255554</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="5">
         <v>6.5752919002118704</v>
       </c>
-      <c r="K44" s="6">
-        <f t="shared" ref="K44:M44" si="42">J44*0.9</f>
+      <c r="M44" s="6">
+        <f t="shared" ref="M44:O44" si="43">L44*0.9</f>
         <v>5.9177627101906838</v>
       </c>
-      <c r="L44" s="6">
-        <f t="shared" si="42"/>
+      <c r="N44" s="6">
+        <f t="shared" si="43"/>
         <v>5.3259864391716158</v>
       </c>
-      <c r="M44" s="6">
-        <f t="shared" si="42"/>
+      <c r="O44" s="6">
+        <f t="shared" si="43"/>
         <v>4.7933877952544544</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="4">
         <v>52.289900000000003</v>
@@ -2897,24 +3286,248 @@
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="5">
+      <c r="I45" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>91753.597237228067</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="5">
         <v>8.7154070159317332</v>
       </c>
-      <c r="K45" s="6">
-        <f t="shared" ref="K45:M45" si="43">J45*0.9</f>
+      <c r="M45" s="6">
+        <f t="shared" ref="M45:O45" si="44">L45*0.9</f>
         <v>7.8438663143385599</v>
       </c>
-      <c r="L45" s="6">
-        <f t="shared" si="43"/>
+      <c r="N45" s="6">
+        <f t="shared" si="44"/>
         <v>7.059479682904704</v>
       </c>
-      <c r="M45" s="6">
-        <f t="shared" si="43"/>
+      <c r="O45" s="6">
+        <f t="shared" si="44"/>
         <v>6.3535317146142338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
